--- a/excel_params/1.8_V2av.xlsx
+++ b/excel_params/1.8_V2av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionIII_double_peak\region_III_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE5A4FB-3DAA-45E1-9864-B00E66170828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F230E91-A15C-48F6-9D05-6BEFA4531272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="8325" xr2:uid="{E8F191AE-085E-41FD-A506-CDB8B6D1E88A}"/>
+    <workbookView xWindow="0" yWindow="1875" windowWidth="19785" windowHeight="7590" xr2:uid="{34601357-7C02-40EA-835F-C9180B3C6887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A233AA53-F38D-4B27-9263-5D43B0B90050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E3E37C-F1F9-4843-B701-1CB74E957E27}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -439,7 +439,7 @@
         <v>1421905647.5912888</v>
       </c>
       <c r="D2">
-        <v>4.9524987488984158E-2</v>
+        <v>0.84982705421542559</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -453,7 +453,7 @@
         <v>1668434326.6744614</v>
       </c>
       <c r="D3">
-        <v>5.3756218456351423E-2</v>
+        <v>0.87368474813114771</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,7 +467,7 @@
         <v>9432531365.9288235</v>
       </c>
       <c r="D4">
-        <v>7.0942320050970342E-2</v>
+        <v>0.74654439126230521</v>
       </c>
     </row>
   </sheetData>
